--- a/biology/Botanique/Geum/Geum.xlsx
+++ b/biology/Botanique/Geum/Geum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geum
-Geum, les Benoîtes ou Benoites[1], est un genre de plantes à fleurs de la famille des Rosaceae.
+Geum, les Benoîtes ou Benoites, est un genre de plantes à fleurs de la famille des Rosaceae.
 Ce sont des plantes herbacées vivaces.
 Les feuilles sont pennées, les fleurs sont solitaires ou en grappes ramifiées. Les fruits secs comportent un grand nombre d'akènes plumeux ou crochus.
 On en compte une quarantaine d'espèces dans les régions tempérées et dans les régions arctiques.
@@ -516,9 +528,11 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geum « désignait probablement la plante en latin, peut-être par dérivation du grec geuô, faire goûter, par allusion au parfum de clou de girofle des racines[2] ». Au Moyen Âge, elle était appelée herba benedicta, « herbe bénite », en référence aux merveilleuses propriétés médicinales qu'on attribuait à la Benoîte commune, puis par assimilation herbe de saint Benoît, un saint à l'origine de l'ordre des Bénédictins, invoqué contre les brûlures et pour faire échec au démon[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geum « désignait probablement la plante en latin, peut-être par dérivation du grec geuô, faire goûter, par allusion au parfum de clou de girofle des racines ». Au Moyen Âge, elle était appelée herba benedicta, « herbe bénite », en référence aux merveilleuses propriétés médicinales qu'on attribuait à la Benoîte commune, puis par assimilation herbe de saint Benoît, un saint à l'origine de l'ordre des Bénédictins, invoqué contre les brûlures et pour faire échec au démon.
 </t>
         </is>
       </c>
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Principales espèces
-Geum chiloense Balb. ex Ser
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Geum chiloense Balb. ex Ser
 Geum coccineum - Benoîte orangée
 Geum heterocarpum Boiss. - Benoîte à fruits variables
 Geum hispidum (pt) Fr. - Benoîte hispide
@@ -562,9 +581,43 @@
 Geum rivale L. - Benoîte des ruisseaux
 Geum triflorum Pursh - Benoîte à trois fleurs
 Geum sylvaticum Pourr. - Benoîte des bois
-Geum urbanum L. - Benoîte commune
-Liste de toutes les espèces
-Geum albiflorum
+Geum urbanum L. - Benoîte commune</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Geum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste de toutes les espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Geum albiflorum
 Geum aleppicum
 Geum andicola
 Geum boliviense
@@ -618,9 +671,47 @@
 Geum uniflorum
 Geum urbanum
 Geum vernum
-Geum virginianum
-Nothospecies
-Geum × aurantiacum
+Geum virginianum</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Geum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste de toutes les espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nothospecies</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Geum × aurantiacum
 Geum × catlingii
 Geum × cebennense
 Geum × gajewskii
